--- a/data/trans_orig/P3A$otra-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P3A$otra-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8512</v>
+        <v>7757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003071659409122874</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01233224391779201</v>
+        <v>0.01123786644102798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1841</v>
+        <v>2262</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0005412657420895141</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.002507387108816976</v>
+        <v>0.003080496471488251</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>2518</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7953</v>
+        <v>7488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001767421803031944</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0002795491183818152</v>
+        <v>0.0002784398818075966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005583481943860173</v>
+        <v>0.005257162904780319</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>32843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24752</v>
+        <v>24260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43737</v>
+        <v>42261</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04758269772733806</v>
+        <v>0.04758269772733805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03586017998966129</v>
+        <v>0.03514855495911298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06336610533609233</v>
+        <v>0.06122839703797216</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>87</v>
@@ -833,19 +833,19 @@
         <v>36907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29151</v>
+        <v>29323</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45955</v>
+        <v>45576</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0502697499844687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03970528841455464</v>
+        <v>0.03994013297609263</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06259386003523636</v>
+        <v>0.06207713879773111</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>138</v>
@@ -854,19 +854,19 @@
         <v>69750</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57138</v>
+        <v>57577</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82327</v>
+        <v>83103</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04896768167230265</v>
+        <v>0.04896768167230267</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04011380528520653</v>
+        <v>0.04042188957011096</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05779746520230913</v>
+        <v>0.05834192309022085</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>22425</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15478</v>
+        <v>15452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32394</v>
+        <v>32517</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03248985633582547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0224243726073448</v>
+        <v>0.02238676817292227</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04693217067832502</v>
+        <v>0.0471102034276862</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -904,19 +904,19 @@
         <v>26279</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19653</v>
+        <v>19899</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33512</v>
+        <v>34518</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03579334259279249</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02676871148492422</v>
+        <v>0.0271043299167451</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0456459349023787</v>
+        <v>0.04701616628422969</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -925,19 +925,19 @@
         <v>48704</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39046</v>
+        <v>39070</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62120</v>
+        <v>60679</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03419256807735156</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02741217423167245</v>
+        <v>0.02742896561532793</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04361150839938015</v>
+        <v>0.04259960890539308</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>20459</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13646</v>
+        <v>13677</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29335</v>
+        <v>30027</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0296405597488317</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01977053456143597</v>
+        <v>0.01981464491528668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04250019360612461</v>
+        <v>0.04350368855930079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -975,19 +975,19 @@
         <v>26571</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19861</v>
+        <v>20200</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33263</v>
+        <v>33770</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03619162585787405</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02705208983275195</v>
+        <v>0.02751390518439996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04530621176965483</v>
+        <v>0.04599703526026304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>96</v>
@@ -996,19 +996,19 @@
         <v>47030</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37755</v>
+        <v>38309</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58339</v>
+        <v>58611</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03301716746434894</v>
+        <v>0.03301716746434895</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02650559368648586</v>
+        <v>0.02689438273554092</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04095637841667554</v>
+        <v>0.04114747576918881</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>325098</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293799</v>
+        <v>294659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352490</v>
+        <v>352422</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4710016102698928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4256556181490186</v>
+        <v>0.4269020365982326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5106877073532748</v>
+        <v>0.5105890749828196</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -1046,19 +1046,19 @@
         <v>161405</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>144710</v>
+        <v>143887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>180012</v>
+        <v>178592</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2198439755894563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1971042638537891</v>
+        <v>0.195983107487696</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2451881540200949</v>
+        <v>0.2432535230215719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>621</v>
@@ -1067,19 +1067,19 @@
         <v>486503</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>451767</v>
+        <v>449746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>524086</v>
+        <v>517751</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3415477484164066</v>
+        <v>0.3415477484164067</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3171614752607088</v>
+        <v>0.3157431907401176</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3679333501534019</v>
+        <v>0.3634857170136029</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>170415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>145801</v>
+        <v>143773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197594</v>
+        <v>198003</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2468969231260287</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.21123647916872</v>
+        <v>0.2082982018115857</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2862748190659253</v>
+        <v>0.2868668229921967</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>246</v>
@@ -1117,19 +1117,19 @@
         <v>164761</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>145651</v>
+        <v>144667</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>185568</v>
+        <v>186408</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.22441526366069</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.198385372909035</v>
+        <v>0.1970462667129693</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2527554315802218</v>
+        <v>0.2538998887210611</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>397</v>
@@ -1138,19 +1138,19 @@
         <v>335176</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>297912</v>
+        <v>303655</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>369197</v>
+        <v>372210</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2353092298338615</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2091479851182742</v>
+        <v>0.213180422660571</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2591933318487032</v>
+        <v>0.2613086620548031</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>432141</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>404903</v>
+        <v>406027</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>460295</v>
+        <v>459778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6260857493627096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5866232151765393</v>
+        <v>0.5882526064972449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6668754539856929</v>
+        <v>0.6661268396238544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1152</v>
@@ -1188,19 +1188,19 @@
         <v>685471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>669749</v>
+        <v>670474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>696307</v>
+        <v>695785</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9336551045053781</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9122414869905267</v>
+        <v>0.9132289624676988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9484146570306088</v>
+        <v>0.9477039179164974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1627</v>
@@ -1209,19 +1209,19 @@
         <v>1117612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1079374</v>
+        <v>1082064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1150664</v>
+        <v>1148728</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7846158329162725</v>
+        <v>0.7846158329162728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7577711324011316</v>
+        <v>0.7596599973369464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8078202501716208</v>
+        <v>0.8064611187408245</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>13308</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6955</v>
+        <v>7154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23008</v>
+        <v>22483</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0126871302380159</v>
+        <v>0.01268713023801591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006630431337335628</v>
+        <v>0.006820319186977202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02193526813561948</v>
+        <v>0.02143445643058139</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1263,19 +1263,19 @@
         <v>8291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4215</v>
+        <v>4283</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14909</v>
+        <v>16644</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.007737753015830759</v>
+        <v>0.007737753015830757</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003933756876473782</v>
+        <v>0.003997533834460367</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01391446982541951</v>
+        <v>0.01553415693359573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -1284,19 +1284,19 @@
         <v>21599</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13930</v>
+        <v>13312</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31680</v>
+        <v>33140</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01018611538348329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006569733473535477</v>
+        <v>0.006278144363553988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01494076086246771</v>
+        <v>0.01562916480187202</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>30240</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21949</v>
+        <v>21815</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40711</v>
+        <v>40256</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02882974107464821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02092521056441312</v>
+        <v>0.02079734031933599</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03881251637262204</v>
+        <v>0.03837885144492761</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -1334,19 +1334,19 @@
         <v>47427</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38796</v>
+        <v>38422</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58144</v>
+        <v>58219</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04426302315744793</v>
+        <v>0.04426302315744792</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03620816835454763</v>
+        <v>0.03585925600335672</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05426584176947958</v>
+        <v>0.05433508502162911</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>133</v>
@@ -1355,19 +1355,19 @@
         <v>77667</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>65175</v>
+        <v>64946</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92827</v>
+        <v>91803</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03662847332125452</v>
+        <v>0.03662847332125453</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03073715007124089</v>
+        <v>0.03062910769671387</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04377842752381154</v>
+        <v>0.04329548990253208</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>23240</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14868</v>
+        <v>14111</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37793</v>
+        <v>38282</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0221566174393787</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01417434496002501</v>
+        <v>0.01345281505450938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03603015092580213</v>
+        <v>0.0364970058581819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1405,7 +1405,7 @@
         <v>30166</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22723</v>
+        <v>23140</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>40627</v>
@@ -1414,10 +1414,10 @@
         <v>0.02815412278504346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02120721943745655</v>
+        <v>0.0215967307745353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03791667875414464</v>
+        <v>0.03791683319685795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1426,19 +1426,19 @@
         <v>53407</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41550</v>
+        <v>40187</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70303</v>
+        <v>68745</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02518727145629436</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01959563934684554</v>
+        <v>0.01895265611647598</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0331558407493837</v>
+        <v>0.03242101160461788</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>18362</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10793</v>
+        <v>10979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31690</v>
+        <v>31304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01750574629956678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01028963045341262</v>
+        <v>0.0104665364778477</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03021250750941117</v>
+        <v>0.02984382629874907</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>50</v>
@@ -1476,19 +1476,19 @@
         <v>27370</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20059</v>
+        <v>20801</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35701</v>
+        <v>36541</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02554399050483065</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01872101330990824</v>
+        <v>0.01941335105924541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0333192528573279</v>
+        <v>0.03410359410597882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -1497,19 +1497,19 @@
         <v>45732</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35713</v>
+        <v>34954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60999</v>
+        <v>62430</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02156762464490936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01684287619411143</v>
+        <v>0.01648460212599914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02876763746702868</v>
+        <v>0.02944281201426004</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>534023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>499983</v>
+        <v>496874</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>569828</v>
+        <v>572696</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5091186212194783</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4766663183377067</v>
+        <v>0.4737019704114564</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5432535507448027</v>
+        <v>0.5459883517570702</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>362</v>
@@ -1547,19 +1547,19 @@
         <v>258177</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>233912</v>
+        <v>232420</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>283947</v>
+        <v>284262</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2409548570596464</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2183081477777143</v>
+        <v>0.2169159932865181</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2650061603731526</v>
+        <v>0.2652997834538085</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>889</v>
@@ -1568,19 +1568,19 @@
         <v>792200</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>751948</v>
+        <v>748052</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>843374</v>
+        <v>839435</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3736103486625089</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3546271553389653</v>
+        <v>0.3527895416742602</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3977446900679462</v>
+        <v>0.3958870724607573</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>291613</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>257365</v>
+        <v>259949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>329431</v>
+        <v>331215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2780134750899354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2453628338887297</v>
+        <v>0.2478264196552796</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3140674898153847</v>
+        <v>0.3157684608714966</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>341</v>
@@ -1618,19 +1618,19 @@
         <v>275946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249219</v>
+        <v>249548</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>309223</v>
+        <v>306063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.257538378889298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2325943396006001</v>
+        <v>0.2329012281227707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2885955170082414</v>
+        <v>0.2856463600602105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>565</v>
@@ -1639,19 +1639,19 @@
         <v>567559</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>523615</v>
+        <v>524329</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>613170</v>
+        <v>612337</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2676670178596721</v>
+        <v>0.267667017859672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.246942439535705</v>
+        <v>0.2472795289843732</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2891779529097859</v>
+        <v>0.2887847679263933</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>681901</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>647442</v>
+        <v>645992</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>719038</v>
+        <v>715298</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6501003332913027</v>
+        <v>0.6501003332913028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6172478663385209</v>
+        <v>0.6158655343397703</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6855051158378223</v>
+        <v>0.6819392283674149</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1411</v>
@@ -1689,19 +1689,19 @@
         <v>985056</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>964412</v>
+        <v>962830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1000828</v>
+        <v>1001692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9193463426156261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.900080115471948</v>
+        <v>0.8986033294717541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9340664444261633</v>
+        <v>0.9348732302704071</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2035</v>
@@ -1710,19 +1710,19 @@
         <v>1666957</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1622245</v>
+        <v>1621186</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1707806</v>
+        <v>1705443</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7861554850031901</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7650687102992162</v>
+        <v>0.7645695412771311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8054203986261597</v>
+        <v>0.8043057375911785</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>5514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13020</v>
+        <v>12992</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006866614383975888</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002449096823732453</v>
+        <v>0.002450216168882291</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01621239423503077</v>
+        <v>0.01617837703751759</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -1764,19 +1764,19 @@
         <v>8358</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3202</v>
+        <v>3365</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19334</v>
+        <v>19857</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01028999370360783</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003942313520014147</v>
+        <v>0.004142439658652176</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02380259404852704</v>
+        <v>0.02444723732901313</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -1785,19 +1785,19 @@
         <v>13873</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7242</v>
+        <v>6937</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26623</v>
+        <v>27202</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.008588037682267069</v>
+        <v>0.008588037682267067</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004483313852182876</v>
+        <v>0.004294614270744385</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01648139393098008</v>
+        <v>0.0168396274036979</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>18716</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12103</v>
+        <v>11840</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28659</v>
+        <v>28444</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02330530144912512</v>
+        <v>0.02330530144912513</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0150704429115468</v>
+        <v>0.0147438258429774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03568667550623546</v>
+        <v>0.03541902076337837</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -1835,19 +1835,19 @@
         <v>38424</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29065</v>
+        <v>29703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51340</v>
+        <v>49684</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04730530450613485</v>
+        <v>0.04730530450613486</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03578344103298247</v>
+        <v>0.03656893783220945</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06320656825301661</v>
+        <v>0.06116736051809896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -1856,19 +1856,19 @@
         <v>57140</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45287</v>
+        <v>44218</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71262</v>
+        <v>69551</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0353735417941179</v>
+        <v>0.03537354179411788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02803596789478955</v>
+        <v>0.02737384594147281</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0441160685326076</v>
+        <v>0.04305683661725607</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>21397</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13278</v>
+        <v>13472</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34310</v>
+        <v>33901</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02664349669382573</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01653389555329107</v>
+        <v>0.01677539103523935</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04272300929913054</v>
+        <v>0.04221450404818185</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -1906,19 +1906,19 @@
         <v>29368</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21175</v>
+        <v>21983</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39396</v>
+        <v>39784</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03615597447520336</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02606894350779824</v>
+        <v>0.02706348839756387</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04850203692703895</v>
+        <v>0.04897950256730596</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -1927,19 +1927,19 @@
         <v>50765</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>39448</v>
+        <v>38822</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65738</v>
+        <v>65772</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03142678225713899</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0244211913564028</v>
+        <v>0.02403363700935463</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0406963423623497</v>
+        <v>0.04071736826986048</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>10565</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6005</v>
+        <v>5479</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19462</v>
+        <v>17716</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.013155530385721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007477236271746609</v>
+        <v>0.006822371849591476</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0242347674498385</v>
+        <v>0.02205973041401035</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1977,19 +1977,19 @@
         <v>11609</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6873</v>
+        <v>7316</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18252</v>
+        <v>18384</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01429243250408312</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008461844437234635</v>
+        <v>0.009007411771355438</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02247087075928733</v>
+        <v>0.02263368131776197</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -1998,19 +1998,19 @@
         <v>22174</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15168</v>
+        <v>15235</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31794</v>
+        <v>32080</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01372721398011613</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009389900231966054</v>
+        <v>0.009431481314538828</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01968265615443212</v>
+        <v>0.01985982586679386</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>410497</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>376685</v>
+        <v>379139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>443729</v>
+        <v>446767</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5111572988644852</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4690540432443787</v>
+        <v>0.4721104971041515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5525386946556153</v>
+        <v>0.5563220043961267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>257</v>
@@ -2048,19 +2048,19 @@
         <v>195711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175846</v>
+        <v>175029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>221211</v>
+        <v>218259</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2409467533907297</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2164904615738471</v>
+        <v>0.2154841310511899</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2723399620622478</v>
+        <v>0.2687057465373218</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>633</v>
@@ -2069,19 +2069,19 @@
         <v>606208</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>561758</v>
+        <v>567589</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>644950</v>
+        <v>644111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3752837408993981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3477663065033733</v>
+        <v>0.3513761917367619</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.399267889111584</v>
+        <v>0.3987481366968215</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>246018</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>214275</v>
+        <v>216839</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>278736</v>
+        <v>283671</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.306345575797166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2668190478650596</v>
+        <v>0.2700112225677836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3470865106283078</v>
+        <v>0.3532321874913605</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>235</v>
@@ -2119,19 +2119,19 @@
         <v>226753</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>198408</v>
+        <v>200549</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>254530</v>
+        <v>255956</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2791639407580429</v>
+        <v>0.279163940758043</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2442669803736641</v>
+        <v>0.2469030743793395</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3133610699649869</v>
+        <v>0.3151164269997058</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>404</v>
@@ -2140,19 +2140,19 @@
         <v>472771</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>430187</v>
+        <v>432691</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>513757</v>
+        <v>519987</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2926774731788955</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2663147907969506</v>
+        <v>0.2678650884356453</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3180504191434372</v>
+        <v>0.3219073215544129</v>
       </c>
     </row>
     <row r="24">
@@ -2169,19 +2169,19 @@
         <v>542863</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>509927</v>
+        <v>513885</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>574496</v>
+        <v>574791</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6759820147897763</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.634969366720856</v>
+        <v>0.6398986500557717</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7153726058936347</v>
+        <v>0.7157394783571228</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>972</v>
@@ -2190,19 +2190,19 @@
         <v>736714</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>715260</v>
+        <v>714716</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>752557</v>
+        <v>753401</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9069934229336184</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8805808484286108</v>
+        <v>0.8799114532254952</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9264984840878636</v>
+        <v>0.9275374401539963</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1433</v>
@@ -2211,19 +2211,19 @@
         <v>1279576</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1239160</v>
+        <v>1240473</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1314068</v>
+        <v>1313295</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7921445498233224</v>
+        <v>0.7921445498233225</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7671237334551709</v>
+        <v>0.7679370412759307</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8134970353793558</v>
+        <v>0.8130185250023566</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>16362</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8361</v>
+        <v>8754</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31232</v>
+        <v>30553</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01653627404215528</v>
+        <v>0.01653627404215529</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008450224947774282</v>
+        <v>0.00884782374107872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03156538610419261</v>
+        <v>0.0308787325634367</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -2265,19 +2265,19 @@
         <v>16278</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9324</v>
+        <v>9184</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27534</v>
+        <v>27174</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01456239359788029</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008341744883575062</v>
+        <v>0.008216547191535044</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02463256473344271</v>
+        <v>0.02431062338618072</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2286,19 +2286,19 @@
         <v>32640</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22568</v>
+        <v>21697</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49252</v>
+        <v>49815</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01548922337783709</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01070965553665938</v>
+        <v>0.01029653333749822</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02337255602624487</v>
+        <v>0.02363970605003154</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>24950</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17449</v>
+        <v>17401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36842</v>
+        <v>36940</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02521612360660205</v>
+        <v>0.02521612360660206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01763526533280212</v>
+        <v>0.01758680855859135</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03723494534134627</v>
+        <v>0.03733427064327097</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -2336,19 +2336,19 @@
         <v>35880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27267</v>
+        <v>27026</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45589</v>
+        <v>45585</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03209882062348732</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02439356494344117</v>
+        <v>0.02417753027612429</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04078444639392823</v>
+        <v>0.04078080856665665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -2357,19 +2357,19 @@
         <v>60830</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>48766</v>
+        <v>48856</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>74727</v>
+        <v>75598</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0288670704026617</v>
+        <v>0.02886707040266169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02314217668001042</v>
+        <v>0.02318463533314649</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0354620156729258</v>
+        <v>0.03587523078811165</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>36864</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26144</v>
+        <v>27138</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>50964</v>
+        <v>51097</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03725736131593388</v>
+        <v>0.03725736131593389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02642255066418347</v>
+        <v>0.02742715456264606</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05150745360821681</v>
+        <v>0.05164154455248771</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>80</v>
@@ -2407,19 +2407,19 @@
         <v>52059</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>41135</v>
+        <v>41550</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>64387</v>
+        <v>65109</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04657297638604222</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03680019313599391</v>
+        <v>0.03717178706447843</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05760199181187284</v>
+        <v>0.05824750145126985</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>125</v>
@@ -2428,19 +2428,19 @@
         <v>88923</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>71538</v>
+        <v>74463</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>107974</v>
+        <v>108411</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04219885662076839</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03394871960812165</v>
+        <v>0.03533671324097101</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05123912825296509</v>
+        <v>0.05144671400119601</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>12463</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7379</v>
+        <v>7662</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19709</v>
+        <v>20821</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01259634023266946</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007457806516330134</v>
+        <v>0.007743869347012172</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01991923040274616</v>
+        <v>0.02104273781941796</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -2478,19 +2478,19 @@
         <v>22968</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16670</v>
+        <v>16542</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31904</v>
+        <v>30931</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02054776570698093</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01491289342505262</v>
+        <v>0.014799038067904</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02854160435209896</v>
+        <v>0.02767130381028185</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>56</v>
@@ -2499,19 +2499,19 @@
         <v>35432</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26808</v>
+        <v>26722</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>45186</v>
+        <v>46212</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01681419716990277</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0127215767583793</v>
+        <v>0.01268109792560795</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02144314220637419</v>
+        <v>0.0219301482684725</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>468500</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>434526</v>
+        <v>436573</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>502395</v>
+        <v>503938</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.473494645730085</v>
+        <v>0.4734946457300851</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.439158565476658</v>
+        <v>0.4412271441514756</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.507750731622631</v>
+        <v>0.5093102991932689</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>314</v>
@@ -2549,19 +2549,19 @@
         <v>216045</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>195918</v>
+        <v>197341</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>240525</v>
+        <v>238856</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1932780392445953</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1752720193945711</v>
+        <v>0.1765448108074523</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2151777745512732</v>
+        <v>0.2136850826865059</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>836</v>
@@ -2570,19 +2570,19 @@
         <v>684546</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>646623</v>
+        <v>642051</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>726573</v>
+        <v>723424</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3248529259012082</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3068564866039014</v>
+        <v>0.3046869340500194</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3447967377823802</v>
+        <v>0.3433024313273158</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>266089</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>235479</v>
+        <v>235216</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>297447</v>
+        <v>303019</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2689251942273602</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.237989287824772</v>
+        <v>0.2377231501694099</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.300618249120033</v>
+        <v>0.3062491952624758</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>333</v>
@@ -2620,19 +2620,19 @@
         <v>281462</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>253232</v>
+        <v>254857</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>312368</v>
+        <v>311695</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2518009489360391</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2265457083945132</v>
+        <v>0.2279999228480551</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2794502048668412</v>
+        <v>0.278848003466517</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>544</v>
@@ -2641,19 +2641,19 @@
         <v>547551</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>505554</v>
+        <v>502820</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>588524</v>
+        <v>588611</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2598415881456296</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2399116710202291</v>
+        <v>0.2386142206335033</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.279285232775116</v>
+        <v>0.2793268453359719</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>655652</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>622480</v>
+        <v>621485</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>686982</v>
+        <v>686395</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.6626412911052502</v>
+        <v>0.6626412911052504</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.629116230073871</v>
+        <v>0.6281101443598409</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6943054951337261</v>
+        <v>0.6937126386152104</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1402</v>
@@ -2691,19 +2691,19 @@
         <v>978683</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>954650</v>
+        <v>954057</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1000936</v>
+        <v>1000063</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.8755472255514041</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.8540464735185573</v>
+        <v>0.8535165549410333</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8954546045100908</v>
+        <v>0.8946743104221192</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2069</v>
@@ -2712,19 +2712,19 @@
         <v>1634336</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1596544</v>
+        <v>1595182</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1673360</v>
+        <v>1671607</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.7755778677584586</v>
+        <v>0.7755778677584585</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.757643736359255</v>
+        <v>0.7569972999110552</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7940969484599986</v>
+        <v>0.7932651662353339</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>37304</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25705</v>
+        <v>25129</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54543</v>
+        <v>52274</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01056275067239314</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00727853887608288</v>
+        <v>0.007115324023655075</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01544384052330096</v>
+        <v>0.01480137873863271</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -2766,19 +2766,19 @@
         <v>33324</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>23000</v>
+        <v>22720</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49610</v>
+        <v>48195</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008920425687357155</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006156784967329851</v>
+        <v>0.006081799675423626</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01327999303877002</v>
+        <v>0.01290106367126481</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>67</v>
@@ -2787,19 +2787,19 @@
         <v>70628</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>55632</v>
+        <v>54345</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>94443</v>
+        <v>90919</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.009718533074497448</v>
+        <v>0.00971853307449745</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00765496693751728</v>
+        <v>0.007477944193104139</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01299541564684864</v>
+        <v>0.0125105009767405</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>106749</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>90655</v>
+        <v>90087</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>126913</v>
+        <v>125797</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03022617796396665</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02566911227969762</v>
+        <v>0.02550841957791017</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03593580649560927</v>
+        <v>0.03561959450647068</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>298</v>
@@ -2837,19 +2837,19 @@
         <v>158638</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>141054</v>
+        <v>140279</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>178464</v>
+        <v>177120</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04246524877948674</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03775819779883305</v>
+        <v>0.03755090880979461</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04777250185007053</v>
+        <v>0.04741277073446185</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>446</v>
@@ -2858,19 +2858,19 @@
         <v>265387</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>240768</v>
+        <v>239267</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>292763</v>
+        <v>293652</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.03651752654509246</v>
+        <v>0.03651752654509247</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03313003311838535</v>
+        <v>0.03292345146399262</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04028452132586065</v>
+        <v>0.040406821687683</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>103927</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>85425</v>
+        <v>85341</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>127816</v>
+        <v>127856</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02942712693183447</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0241882333306379</v>
+        <v>0.02416439059867408</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03619139624328958</v>
+        <v>0.0362026724435433</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>227</v>
@@ -2908,19 +2908,19 @@
         <v>137872</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>120840</v>
+        <v>117923</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>160216</v>
+        <v>159095</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03690658681923908</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03234714416498347</v>
+        <v>0.0315665311109557</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04288759910046998</v>
+        <v>0.04258775700192215</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>350</v>
@@ -2929,19 +2929,19 @@
         <v>241799</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>216929</v>
+        <v>216057</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>271053</v>
+        <v>270605</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03327185420398489</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0298497194843199</v>
+        <v>0.02972976473708566</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03729726621372113</v>
+        <v>0.03723553474181183</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>61849</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>48668</v>
+        <v>49723</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>78763</v>
+        <v>81078</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01751271256296945</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01378056500794678</v>
+        <v>0.01407916786205429</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02230196074124071</v>
+        <v>0.02295733407109047</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>174</v>
@@ -2979,19 +2979,19 @@
         <v>88518</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>75708</v>
+        <v>76221</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>103630</v>
+        <v>104396</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02369516945917878</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02026599933833883</v>
+        <v>0.02040324928141576</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02774028896986102</v>
+        <v>0.02794532562455269</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -3000,19 +3000,19 @@
         <v>150367</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>131532</v>
+        <v>130794</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>172742</v>
+        <v>171251</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.02069073089525288</v>
+        <v>0.02069073089525289</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0180989167348881</v>
+        <v>0.01799742098249282</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0237695192801975</v>
+        <v>0.02356427663386767</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>1738118</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1676617</v>
+        <v>1675147</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1808273</v>
+        <v>1806158</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4921520294218328</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4747378781784632</v>
+        <v>0.4743216722758248</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5120166419398764</v>
+        <v>0.5114175633552323</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1206</v>
@@ -3050,19 +3050,19 @@
         <v>831338</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>783931</v>
+        <v>790958</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>872219</v>
+        <v>877602</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2225383448961876</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2098479527136888</v>
+        <v>0.2117291406404459</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2334815085995864</v>
+        <v>0.2349225061719885</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2979</v>
@@ -3071,19 +3071,19 @@
         <v>2569457</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2489182</v>
+        <v>2487784</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2652087</v>
+        <v>2655005</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3535603260842261</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3425145153727588</v>
+        <v>0.3423221061707669</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3649303721448481</v>
+        <v>0.3653319287485291</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>974134</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>915407</v>
+        <v>909792</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1040892</v>
+        <v>1036587</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2758283500224135</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2591995757924219</v>
+        <v>0.2576096285897158</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2947308874621247</v>
+        <v>0.293511964059593</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1155</v>
@@ -3121,19 +3121,19 @@
         <v>948922</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>893856</v>
+        <v>899325</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>996686</v>
+        <v>1003799</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2540140009972114</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2392733741726286</v>
+        <v>0.24073735149216</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2667997688225335</v>
+        <v>0.2687036672757505</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1910</v>
@@ -3142,19 +3142,19 @@
         <v>1923057</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1834645</v>
+        <v>1841164</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2006286</v>
+        <v>2003528</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2646149437224961</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2524493689353373</v>
+        <v>0.2533463970216558</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2760674073636368</v>
+        <v>0.2756879407140926</v>
       </c>
     </row>
     <row r="38">
@@ -3171,19 +3171,19 @@
         <v>2312557</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2243017</v>
+        <v>2240011</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2374855</v>
+        <v>2377664</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6548057754573988</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6351154084348603</v>
+        <v>0.634264217676654</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6724455680291604</v>
+        <v>0.6732410353417373</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4937</v>
@@ -3192,19 +3192,19 @@
         <v>3385923</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3347923</v>
+        <v>3346132</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3420853</v>
+        <v>3420441</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9063669999452783</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8961948497794108</v>
+        <v>0.8957152698446258</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9157172619145945</v>
+        <v>0.9156070272378266</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7164</v>
@@ -3213,19 +3213,19 @@
         <v>5698481</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5615034</v>
+        <v>5614401</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5769336</v>
+        <v>5766036</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7841178267236728</v>
+        <v>0.7841178267236727</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7726354913281056</v>
+        <v>0.7725483567892708</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7938676764520349</v>
+        <v>0.7934134885047113</v>
       </c>
     </row>
     <row r="39">
